--- a/SP_Sklad/TempLate/TurnMoney(23).xlsx
+++ b/SP_Sklad/TempLate/TurnMoney(23).xlsx
@@ -29,7 +29,7 @@
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -993,10 +993,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:L66"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1651,36 +1651,6 @@
       <c r="K36" s="19"/>
       <c r="L36" s="20"/>
     </row>
-    <row r="37" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="45">
     <mergeCell ref="B1:L1"/>
@@ -1694,6 +1664,13 @@
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="E12:F13"/>
     <mergeCell ref="E6:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G12:J13"/>
     <mergeCell ref="L24:L25"/>
     <mergeCell ref="B27:J27"/>
     <mergeCell ref="B34:K34"/>
@@ -1710,13 +1687,6 @@
     <mergeCell ref="C24:D25"/>
     <mergeCell ref="E24:F25"/>
     <mergeCell ref="G24:J25"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G12:J13"/>
     <mergeCell ref="B32:K32"/>
     <mergeCell ref="B35:K35"/>
     <mergeCell ref="B15:J15"/>

--- a/SP_Sklad/TempLate/TurnMoney(23).xlsx
+++ b/SP_Sklad/TempLate/TurnMoney(23).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="135" yWindow="840" windowWidth="14175" windowHeight="7260"/>
@@ -94,9 +94,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;\ h:mm;@"/>
-    <numFmt numFmtId="165" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;;@"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;;@"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -532,7 +531,7 @@
     <xf numFmtId="2" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -578,16 +577,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -995,9 +994,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1634,7 +1631,7 @@
       <c r="J35" s="29"/>
       <c r="K35" s="29"/>
       <c r="L35" s="23" t="e">
-        <f>MONEY2_SUM</f>
+        <f>MONEY2_Saldo</f>
         <v>#NAME?</v>
       </c>
     </row>

--- a/SP_Sklad/TempLate/TurnMoney(23).xlsx
+++ b/SP_Sklad/TempLate/TurnMoney(23).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="135" yWindow="840" windowWidth="14175" windowHeight="7260"/>
@@ -10,16 +10,16 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DocList1">Лист1!$A$8:$L$9</definedName>
-    <definedName name="DocList2">Лист1!$A$14:$L$15</definedName>
-    <definedName name="DocList3">Лист1!$A$20:$L$21</definedName>
-    <definedName name="DocList4">Лист1!$A$26:$L$27</definedName>
+    <definedName name="DocList1">Лист1!$A$8:$J$9</definedName>
+    <definedName name="DocList2">Лист1!$A$14:$J$15</definedName>
+    <definedName name="DocList3">Лист1!$A$20:$J$21</definedName>
+    <definedName name="DocList4">Лист1!$A$26:$J$27</definedName>
     <definedName name="groupRange1">Лист1!#REF!</definedName>
     <definedName name="groupRange2">Лист1!#REF!</definedName>
     <definedName name="groupRange3">Лист1!#REF!</definedName>
     <definedName name="groupRange4">Лист1!#REF!</definedName>
-    <definedName name="MONEY1">Лист1!$A$32:$L$33</definedName>
-    <definedName name="MONEY2">Лист1!$A$35:$L$36</definedName>
+    <definedName name="MONEY1">Лист1!$A$32:$J$33</definedName>
+    <definedName name="MONEY2">Лист1!$A$35:$J$36</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
     <definedName name="range2">Лист1!#REF!</definedName>
     <definedName name="range3">Лист1!#REF!</definedName>
@@ -29,12 +29,12 @@
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
   <si>
     <t>sum</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Вхідні платежі:</t>
-  </si>
-  <si>
-    <t>№ п/п</t>
   </si>
   <si>
     <t>Платник</t>
@@ -93,11 +90,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -223,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -505,11 +502,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="55"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="55"/>
+      </left>
+      <right style="hair">
+        <color indexed="55"/>
+      </right>
+      <top style="hair">
+        <color indexed="55"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -521,9 +566,6 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -562,6 +604,72 @@
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -574,53 +682,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="22" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -779,7 +842,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -814,7 +876,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -990,44 +1051,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1" style="2" customWidth="1"/>
-    <col min="2" max="3" width="8.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="12.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="32.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="45" t="s">
+    <row r="1" spans="1:10" ht="27" customHeight="1">
+      <c r="B1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-    </row>
-    <row r="2" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+    </row>
+    <row r="2" spans="1:10" ht="12.75" customHeight="1">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1037,10 +1095,8 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" ht="13.5" customHeight="1">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1048,653 +1104,579 @@
         <f>CONCATENATE("з "&amp;XLRPARAMS_StartDate," по "&amp;XLRPARAMS_EndDate)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+    </row>
+    <row r="4" spans="1:10" ht="12.75" customHeight="1">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4"/>
+      <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-    </row>
-    <row r="5" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="35" t="s">
+    </row>
+    <row r="6" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="E6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="35" t="s">
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="31" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
+    <row r="7" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="37"/>
       <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="37"/>
-    </row>
-    <row r="8" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="13" t="e">
-        <f>DocList1_NUM</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C8" s="31" t="e">
+      <c r="I7" s="33"/>
+      <c r="J7" s="32"/>
+    </row>
+    <row r="8" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="12" t="e">
+        <f>DocList1_DOCNUM</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C8" s="29" t="e">
         <f>DocList1_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="33" t="e">
-        <f>DocList1_DOCNUM</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34" t="e">
+      <c r="D8" s="30"/>
+      <c r="E8" s="41" t="e">
         <f>DocList1_KANAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="11" t="e">
+      <c r="F8" s="42"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="25" t="e">
+        <f>DocList1_CHARGENAME</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I8" s="10" t="e">
         <f>DocList1_PAYTYPENAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="L8" s="10" t="e">
+      <c r="J8" s="9" t="e">
         <f>DocList1_TOTAL</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="30" t="s">
+    <row r="9" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22" t="s">
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+    <row r="10" spans="1:10" ht="12.75" customHeight="1">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10"/>
+      <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-    </row>
-    <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:10" ht="12.75" customHeight="1">
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="41" t="s">
+    </row>
+    <row r="12" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35" t="s">
+      <c r="D12" s="35"/>
+      <c r="E12" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="35" t="s">
+      <c r="J12" s="31" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
+    <row r="13" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="36"/>
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="37"/>
-    </row>
-    <row r="14" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="13" t="e">
-        <f>DocList2_NUM</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C14" s="31" t="e">
+      <c r="I13" s="33"/>
+      <c r="J13" s="32"/>
+    </row>
+    <row r="14" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="12" t="e">
+        <f>DocList2_DOCNUM</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C14" s="29" t="e">
         <f>DocList2_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33" t="e">
-        <f>DocList2_DOCNUM</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34" t="e">
+      <c r="D14" s="30"/>
+      <c r="E14" s="41" t="e">
         <f>DocList2_KANAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="11" t="e">
+      <c r="F14" s="42"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="26" t="e">
+        <f>DocList2_CHARGENAME</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I14" s="10" t="e">
         <f>DocList2_PAYTYPENAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="L14" s="10" t="e">
+      <c r="J14" s="9" t="e">
         <f>DocList2_TOTAL</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="30" t="s">
+    <row r="15" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A15" s="8"/>
+      <c r="B15" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="22" t="s">
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="17" spans="1:10" ht="12.75" customHeight="1">
       <c r="B17" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="7"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="41" t="s">
+    </row>
+    <row r="18" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A18" s="8"/>
+      <c r="B18" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35" t="s">
+      <c r="D18" s="35"/>
+      <c r="E18" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="34"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="35" t="s">
+      <c r="I18" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="31" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
+    <row r="19" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A19" s="8"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="36"/>
       <c r="G19" s="37"/>
       <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="37"/>
-    </row>
-    <row r="20" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="13" t="e">
-        <f>DocList3_NUM</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C20" s="31" t="e">
+      <c r="I19" s="33"/>
+      <c r="J19" s="32"/>
+    </row>
+    <row r="20" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A20" s="8"/>
+      <c r="B20" s="12" t="e">
+        <f>DocList3_DOCNUM</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C20" s="29" t="e">
         <f>DocList3_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="33" t="e">
-        <f>DocList3_DOCNUM</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34" t="e">
+      <c r="D20" s="30"/>
+      <c r="E20" s="41" t="e">
+        <f>DocList3_KANAME</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F20" s="42"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="27" t="e">
         <f>DocList3_CHARGENAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="11" t="e">
+      <c r="I20" s="10" t="e">
         <f>DocList3_PAYTYPENAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="L20" s="10" t="e">
+      <c r="J20" s="9" t="e">
         <f>DocList3_TOTAL</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="30" t="s">
+    <row r="21" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A21" s="8"/>
+      <c r="B21" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="22" t="s">
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-    </row>
-    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A22" s="8"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+    </row>
+    <row r="23" spans="1:10" ht="12.75" customHeight="1">
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-    </row>
-    <row r="24" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="41" t="s">
+    </row>
+    <row r="24" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A24" s="8"/>
+      <c r="B24" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35" t="s">
+      <c r="D24" s="35"/>
+      <c r="E24" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="35" t="s">
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="31" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="37"/>
-    </row>
-    <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="13" t="e">
-        <f>DocList4_NUM</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C26" s="31" t="e">
+    <row r="25" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A25" s="8"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="32"/>
+    </row>
+    <row r="26" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A26" s="8"/>
+      <c r="B26" s="12" t="e">
+        <f>DocList4_DOCNUM</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C26" s="29" t="e">
         <f>DocList4_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33" t="e">
-        <f>DocList4_DOCNUM</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="11" t="e">
+      <c r="D26" s="30"/>
+      <c r="E26" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="10" t="e">
         <f>DocList4_PAYTYPENAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="L26" s="10" t="e">
+      <c r="J26" s="9" t="e">
         <f>DocList4_TOTAL</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="30" t="s">
+    <row r="27" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A27" s="8"/>
+      <c r="B27" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="22" t="s">
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-    </row>
-    <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A28" s="8"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+    </row>
+    <row r="29" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="30" spans="1:10" ht="12.75" customHeight="1">
       <c r="B30" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="7"/>
+      <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-    </row>
-    <row r="31" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="38" t="e">
+    </row>
+    <row r="31" spans="1:10" ht="12.75" customHeight="1">
+      <c r="B31" s="44" t="e">
         <f>CONCATENATE("Залишки по касі на ",XLRPARAMS_EndDate)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="12" t="s">
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="26" t="e">
+    <row r="32" spans="1:10" ht="12.75" customHeight="1">
+      <c r="B32" s="47" t="e">
         <f>MONEY1_CURRENCY</f>
         <v>#NAME?</v>
       </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="24" t="e">
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="23" t="e">
         <f>MONEY1_Saldo</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="16"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="15"/>
-    </row>
-    <row r="34" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="38" t="e">
+    <row r="33" spans="2:10" ht="12.75" customHeight="1">
+      <c r="B33" s="15"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="14"/>
+    </row>
+    <row r="34" spans="2:10" ht="12.75" customHeight="1">
+      <c r="B34" s="44" t="e">
         <f>CONCATENATE("Залишки на банківських рахунках на ",XLRPARAMS_EndDate)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="12" t="s">
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="28" t="e">
+    <row r="35" spans="2:10" ht="12.75" customHeight="1">
+      <c r="B35" s="49" t="e">
         <f>MONEY2_CURRENCY</f>
         <v>#NAME?</v>
       </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="23" t="e">
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="22" t="e">
         <f>MONEY2_Saldo</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
+    <row r="36" spans="2:10" ht="12.75" customHeight="1">
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
       <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="G6:J7"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G12:J13"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B34:K34"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="B31:K31"/>
+  <mergeCells count="40">
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="E18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="B31:I31"/>
     <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="G18:J19"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:D13"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:F25"/>
-    <mergeCell ref="G24:J25"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="E24:H25"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E12:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H12:H13"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/SP_Sklad/TempLate/TurnMoney(23).xlsx
+++ b/SP_Sklad/TempLate/TurnMoney(23).xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
   <si>
     <t>sum</t>
   </si>
@@ -84,7 +84,10 @@
     <t>Фінансові операції:</t>
   </si>
   <si>
-    <t>Корегування залишку</t>
+    <t>Тип докуманта</t>
+  </si>
+  <si>
+    <t>Звідки\Куди</t>
   </si>
 </sst>
 </file>
@@ -220,7 +223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -484,26 +487,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="55"/>
       </left>
       <right/>
@@ -554,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -598,13 +581,10 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -613,6 +593,9 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -646,16 +629,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -670,19 +653,13 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1189,7 +1166,7 @@
       </c>
       <c r="F8" s="42"/>
       <c r="G8" s="43"/>
-      <c r="H8" s="25" t="e">
+      <c r="H8" s="24" t="e">
         <f>DocList1_CHARGENAME</f>
         <v>#NAME?</v>
       </c>
@@ -1295,7 +1272,7 @@
       </c>
       <c r="F14" s="42"/>
       <c r="G14" s="43"/>
-      <c r="H14" s="26" t="e">
+      <c r="H14" s="25" t="e">
         <f>DocList2_CHARGENAME</f>
         <v>#NAME?</v>
       </c>
@@ -1391,7 +1368,7 @@
       </c>
       <c r="F20" s="42"/>
       <c r="G20" s="43"/>
-      <c r="H20" s="27" t="e">
+      <c r="H20" s="26" t="e">
         <f>DocList3_CHARGENAME</f>
         <v>#NAME?</v>
       </c>
@@ -1429,8 +1406,8 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" customHeight="1">
       <c r="B23" s="5" t="s">
@@ -1454,12 +1431,14 @@
         <v>3</v>
       </c>
       <c r="D24" s="35"/>
-      <c r="E24" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
+      <c r="E24" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="34"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35" t="s">
+        <v>17</v>
+      </c>
       <c r="I24" s="31" t="s">
         <v>11</v>
       </c>
@@ -1472,10 +1451,10 @@
       <c r="B25" s="33"/>
       <c r="C25" s="36"/>
       <c r="D25" s="37"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
       <c r="I25" s="33"/>
       <c r="J25" s="32"/>
     </row>
@@ -1490,18 +1469,22 @@
         <v>#NAME?</v>
       </c>
       <c r="D26" s="30"/>
-      <c r="E26" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
+      <c r="E26" s="41" t="e">
+        <f>DocList4_DocTypeName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F26" s="42"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="27" t="e">
+        <f>DocList4_SourceType</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I26" s="10" t="e">
         <f>DocList4_PAYTYPENAME</f>
         <v>#NAME?</v>
       </c>
       <c r="J26" s="9" t="e">
-        <f>DocList4_TOTAL</f>
+        <f>DocList4_ActualSummInCurr</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -1530,8 +1513,8 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="30" spans="1:10" ht="12.75" customHeight="1">
@@ -1574,8 +1557,8 @@
       <c r="F32" s="48"/>
       <c r="G32" s="48"/>
       <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="23" t="e">
+      <c r="I32" s="49"/>
+      <c r="J32" s="22" t="e">
         <f>MONEY1_Saldo</f>
         <v>#NAME?</v>
       </c>
@@ -1608,17 +1591,17 @@
       </c>
     </row>
     <row r="35" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B35" s="49" t="e">
+      <c r="B35" s="47" t="e">
         <f>MONEY2_CURRENCY</f>
         <v>#NAME?</v>
       </c>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="49"/>
       <c r="J35" s="22" t="e">
         <f>MONEY2_Saldo</f>
         <v>#NAME?</v>
@@ -1636,18 +1619,19 @@
       <c r="J36" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="B32:I32"/>
+  <mergeCells count="41">
     <mergeCell ref="B35:I35"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="B21:H21"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:H26"/>
     <mergeCell ref="I24:I25"/>
     <mergeCell ref="E18:G19"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E24:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H24:H25"/>
     <mergeCell ref="J24:J25"/>
     <mergeCell ref="B27:H27"/>
     <mergeCell ref="B34:I34"/>
@@ -1660,9 +1644,9 @@
     <mergeCell ref="C12:D13"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:H25"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B32:I32"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="J6:J7"/>
